--- a/pythonProject1/sentdexMachineLearning/Test.xlsx
+++ b/pythonProject1/sentdexMachineLearning/Test.xlsx
@@ -447,17 +447,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHẠM PHAN TRÚC PHƯƠNG</t>
+          <t>LẦU MINH TÂM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02017776</t>
+          <t>02017218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Toán: 7.20 Ngữ văn: 5.25 Vật lí: 6.00 Hóa học: 7.25 Sinh học: 5.25 KHTN: 6.17 Tiếng Anh: 4.80</t>
+          <t>Toán: 7.20 Ngữ văn: 7.00 Vật lí: 8.50 Hóa học: 8.00 Sinh học: 5.00 KHTN: 7.17 Tiếng Anh: 4.60</t>
         </is>
       </c>
     </row>
